--- a/AIWE Table Making Guideline v20171101.xlsx
+++ b/AIWE Table Making Guideline v20171101.xlsx
@@ -11,19 +11,20 @@
     <sheet name="Meta Table (Data)" sheetId="2" r:id="rId2"/>
     <sheet name="ListColumns" sheetId="6" r:id="rId3"/>
     <sheet name="Email Tables" sheetId="8" r:id="rId4"/>
-    <sheet name="Table Name VS Table Source" sheetId="9" r:id="rId5"/>
-    <sheet name="TC-SQLS" sheetId="7" r:id="rId6"/>
-    <sheet name="Misc" sheetId="4" r:id="rId7"/>
-    <sheet name="Development Ideas" sheetId="10" r:id="rId8"/>
-    <sheet name="Updates Log legacy" sheetId="3" r:id="rId9"/>
-    <sheet name="DBUpdates legacy" sheetId="5" r:id="rId10"/>
+    <sheet name="Core Table Scripts" sheetId="11" r:id="rId5"/>
+    <sheet name="Table Name VS Table Source" sheetId="9" r:id="rId6"/>
+    <sheet name="TC-SQLS" sheetId="7" r:id="rId7"/>
+    <sheet name="Misc" sheetId="4" r:id="rId8"/>
+    <sheet name="Development Ideas" sheetId="10" r:id="rId9"/>
+    <sheet name="Updates Log legacy" sheetId="3" r:id="rId10"/>
+    <sheet name="DBUpdates legacy" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1070">
   <si>
     <t>No</t>
   </si>
@@ -4584,6 +4585,165 @@
  or table value reference in the form of RefTableName:RefTableColumn:OptionalSelf+-PosNum
 HTML color = HTML color code in text. For example: red or blue
 If multiple conditions are applied to a single column, the color of the first (left-most) condition to be met will be applied</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CoreAccessLog(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cid int primary key identity NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UserName nvarchar(300) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LogTimeStamp datetime2(7) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LogType nvarchar(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Result nvarchar(100) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LogMessage nvarchar(3000) NULL,</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CoreActionLog(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UserName nvarchar(300) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ControllerType nvarchar(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ControllerName nvarchar(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TableSource nvarchar(100) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UserAction nvarchar(100) NOT NULL,</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CoreErrorLog(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ErrorCode nvarchar(100) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ControllerType nvarchar(100) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ControllerName nvarchar(100) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UserAction nvarchar(100) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ErrorMessage nvarchar(max) NULL,</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CoreUserMap(</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UserName nvarchar(500) NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EncryptedPassword nvarchar(2000) NULL,</t>
+  </si>
+  <si>
+    <t>MetaItems</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CoreEmailInfo (</t>
+  </si>
+  <si>
+    <t>CREATE TABLE CoreEmailTemplate (</t>
+  </si>
+  <si>
+    <t>'CoreAccessLog', --TableName</t>
+  </si>
+  <si>
+    <t>'Access Log',  --DisplayName</t>
+  </si>
+  <si>
+    <t>'ExportToCSV;ExportAllToCSV', --TableActionList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'ExportToCSV;ExportAllToCSV', --DefaultTableActionLinkList  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Anonymous;Administrator', --AccessExclusionList </t>
+  </si>
+  <si>
+    <t>'CoreActionLog', --TableName</t>
+  </si>
+  <si>
+    <t>'Action Log',  --DisplayName</t>
+  </si>
+  <si>
+    <t>'CoreErrorLog', --TableName</t>
+  </si>
+  <si>
+    <t>'Error Log',  --DisplayName</t>
+  </si>
+  <si>
+    <t>'CoreUserMap', --TableName</t>
+  </si>
+  <si>
+    <t>'User Map',  --DisplayName</t>
+  </si>
+  <si>
+    <t>'CoreEmailInfo', --TableName</t>
+  </si>
+  <si>
+    <t>'Email Info',  --DisplayName</t>
+  </si>
+  <si>
+    <t>'EmailFrom;EmailTo;EmailSubject;EmailCc;EmailBcc;EmailBody=20;EmailParameters=20;AttachmentFilePaths', --TextFieldColumns</t>
+  </si>
+  <si>
+    <t>'Cid;EmailCc;EmailBcc;EmailBody;EmailParameters;AttachmentFilePaths', --ColumnExclusionList</t>
+  </si>
+  <si>
+    <t>'CoreEmailTemplate', --TableName</t>
+  </si>
+  <si>
+    <t>'Email Template',  --DisplayName</t>
+  </si>
+  <si>
+    <t>'EmailFrom;EmailTo;EmailSubject;EmailCc;EmailBcc;EmailBody=20;AttachmentFilePaths', --TextFieldColumns</t>
+  </si>
+  <si>
+    <t>'Cid;EmailCc;EmailBcc;EmailBody;AttachmentFilePaths', --ColumnExclusionList</t>
+  </si>
+  <si>
+    <t>INSERT INTO MetaItem (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TableName, DisplayName, TableSource, PrefilledColumns, ItemsPerPage, OrderBy, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegexCheckedColumns, RegexCheckedColumnExamples, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserRelatedFilters, DisableFilter, ForcedFilterColumns, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnExclusionList, FilterExclusionList, DetailsExclusionList, CreateEditExclusionList, CsvExclusionList, AccessExclusionList, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoringList, FilterDropDownLists, CreateEditDropDownLists, PrefixesOfColumns, PostfixesOfColumns, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListColumns, TimeStampColumns, HistoryTable, HistoryTrigger, AutoGeneratedColumns, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnSequence, ColumnAliases, EditShowOnlyColumns, ScriptConstructorColumns, ScriptColumns, </t>
+  </si>
+  <si>
+    <t>CustomDateTimeFormatColumns, EmailMakerTriggers, EmailMakers, NonPictureAttachmentColumns, DownloadColumns</t>
   </si>
 </sst>
 </file>
@@ -5352,7 +5512,7 @@
   <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6280,6 +6440,2693 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AD447"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="93.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="3">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="3">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="3">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="3">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="3">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="3">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="3">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD137" s="7"/>
+    </row>
+    <row r="138" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="3">
+        <v>3</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="3">
+        <v>4</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="3">
+        <v>5</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="3">
+        <v>6</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="3">
+        <v>2</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="3">
+        <v>2</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="3">
+        <v>3</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="3">
+        <v>4</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="3">
+        <v>1</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="3">
+        <v>2</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="3">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>9</v>
+      </c>
+      <c r="C215" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3">
+        <v>2</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3">
+        <v>1</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3">
+        <v>2</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D253" s="3"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3">
+        <v>1</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D259" s="3"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="C284" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>4</v>
+      </c>
+      <c r="C286" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>53</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D306" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>152</v>
+      </c>
+      <c r="D307" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
+        <v>76</v>
+      </c>
+      <c r="D308" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C322" t="s">
+        <v>165</v>
+      </c>
+      <c r="D322" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C324" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D325" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>137</v>
+      </c>
+      <c r="D326" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>138</v>
+      </c>
+      <c r="D328" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
+        <v>139</v>
+      </c>
+      <c r="D329" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>140</v>
+      </c>
+      <c r="D330" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C333" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C334" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C337" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C365" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>4</v>
+      </c>
+      <c r="C380" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>99</v>
+      </c>
+      <c r="D390" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
+        <v>53</v>
+      </c>
+      <c r="D391" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392" t="s">
+        <v>100</v>
+      </c>
+      <c r="D392" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>83</v>
+      </c>
+      <c r="D394" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
+        <v>53</v>
+      </c>
+      <c r="D395" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
+        <v>84</v>
+      </c>
+      <c r="D396" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>3</v>
+      </c>
+      <c r="C398" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>4</v>
+      </c>
+      <c r="C399" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C400" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C401" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C402" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
+        <v>53</v>
+      </c>
+      <c r="D412" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>3</v>
+      </c>
+      <c r="C415" t="s">
+        <v>82</v>
+      </c>
+      <c r="D415" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>4</v>
+      </c>
+      <c r="C416" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>42</v>
+      </c>
+      <c r="D418" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D422" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>3</v>
+      </c>
+      <c r="C423" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>4</v>
+      </c>
+      <c r="C424" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D425" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>7</v>
+      </c>
+      <c r="C429" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>8</v>
+      </c>
+      <c r="C430" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>9</v>
+      </c>
+      <c r="C431" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>10</v>
+      </c>
+      <c r="C433" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>67</v>
+      </c>
+      <c r="D434" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>2</v>
+      </c>
+      <c r="C438" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>3</v>
+      </c>
+      <c r="C439" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>4</v>
+      </c>
+      <c r="C440" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>6</v>
+      </c>
+      <c r="C442" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -8405,7 +11252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFBC7E6-D076-4D22-984B-79716B141626}">
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9482,6 +12331,2071 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2083B6-D830-4BBC-A295-F78CC43F1FAC}">
+  <dimension ref="A1:J385"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F11" t="s">
+        <v>707</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="84" t="s">
+        <v>873</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="84" t="s">
+        <v>874</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J13" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="84" t="s">
+        <v>919</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="84" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="84" t="s">
+        <v>879</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="84" t="s">
+        <v>874</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="84" t="s">
+        <v>880</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="84" t="s">
+        <v>919</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="84" t="s">
+        <v>881</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="84" t="s">
+        <v>879</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="84" t="s">
+        <v>882</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="84" t="s">
+        <v>880</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="84" t="s">
+        <v>883</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="84" t="s">
+        <v>881</v>
+      </c>
+      <c r="J19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="84" t="s">
+        <v>884</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="84" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="84" t="s">
+        <v>876</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="84" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="84" t="s">
+        <v>991</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="84" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="84" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
+        <v>707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20176E74-4FE4-45FF-9D3D-1F414CD91B6C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -9535,7 +14449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9184335C-9D79-457E-8EC8-F5A3ABCEADC7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -9573,7 +14487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -9646,7 +14560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4777CB-43B8-4B33-BB8C-F869B4D758C0}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -9679,2691 +14593,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD447"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
-    <col min="3" max="3" width="93.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
-        <v>3</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="3">
-        <v>2</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="3">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="3">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="3">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="3">
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="3">
-        <v>6</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="3">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="3">
-        <v>8</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="3">
-        <v>10</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="3">
-        <v>11</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="3">
-        <v>2</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="3">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="3">
-        <v>4</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="3">
-        <v>5</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="3">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="3">
-        <v>3</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="3">
-        <v>2</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="3">
-        <v>2</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="3">
-        <v>3</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="3">
-        <v>2</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="3">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="3">
-        <v>1</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="3">
-        <v>1</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="3">
-        <v>1</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="3">
-        <v>2</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="3">
-        <v>1</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="3">
-        <v>2</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="3">
-        <v>3</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="3">
-        <v>1</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="131" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="132" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="3">
-        <v>1</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="133" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="134" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="3">
-        <v>1</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="135" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="3">
-        <v>2</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="136" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="137" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD137" s="7"/>
-    </row>
-    <row r="138" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="139" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="140" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="141" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="3">
-        <v>3</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="142" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="3">
-        <v>4</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="143" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="3">
-        <v>5</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="144" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="3">
-        <v>6</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="3">
-        <v>1</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="3">
-        <v>2</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="3">
-        <v>1</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="3">
-        <v>1</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="3">
-        <v>1</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="3">
-        <v>2</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="3">
-        <v>1</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="3">
-        <v>2</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="3">
-        <v>3</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="3">
-        <v>4</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="3">
-        <v>1</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="3">
-        <v>1</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="3">
-        <v>2</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="3">
-        <v>3</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="3">
-        <v>1</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B189" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B193">
-        <v>2</v>
-      </c>
-      <c r="C193" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C194" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B199">
-        <v>2</v>
-      </c>
-      <c r="C199" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B200">
-        <v>3</v>
-      </c>
-      <c r="C200" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B201">
-        <v>4</v>
-      </c>
-      <c r="C201" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B202">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C203" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B208">
-        <v>2</v>
-      </c>
-      <c r="C208" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B209">
-        <v>3</v>
-      </c>
-      <c r="C209" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B210">
-        <v>4</v>
-      </c>
-      <c r="C210" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B211">
-        <v>5</v>
-      </c>
-      <c r="C211" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B212">
-        <v>6</v>
-      </c>
-      <c r="C212" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B213">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B214">
-        <v>8</v>
-      </c>
-      <c r="C214" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B215">
-        <v>9</v>
-      </c>
-      <c r="C215" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B218" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B223">
-        <v>1</v>
-      </c>
-      <c r="C223" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B228">
-        <v>2</v>
-      </c>
-      <c r="C228" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C234" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B236">
-        <v>1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B237">
-        <v>2</v>
-      </c>
-      <c r="C237" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B238">
-        <v>3</v>
-      </c>
-      <c r="C238" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3">
-        <v>1</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3">
-        <v>2</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3">
-        <v>1</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3">
-        <v>2</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D249" s="3"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D251" s="3"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
-      <c r="C253" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D253" s="3"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3">
-        <v>1</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D255" s="3"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3">
-        <v>1</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D257" s="3"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3">
-        <v>1</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D259" s="3"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B262" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B264">
-        <v>2</v>
-      </c>
-      <c r="C264" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B265">
-        <v>3</v>
-      </c>
-      <c r="C265" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B266">
-        <v>4</v>
-      </c>
-      <c r="C266" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C269" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C270" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B271">
-        <v>2</v>
-      </c>
-      <c r="C271" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B272" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B273">
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C274" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C275" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C276" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B277">
-        <v>2</v>
-      </c>
-      <c r="C277" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B278" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B279">
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B282" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B283">
-        <v>1</v>
-      </c>
-      <c r="C283" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B284">
-        <v>2</v>
-      </c>
-      <c r="C284" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B285">
-        <v>3</v>
-      </c>
-      <c r="C285" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B286">
-        <v>4</v>
-      </c>
-      <c r="C286" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B287" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B288">
-        <v>1</v>
-      </c>
-      <c r="C288" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C289" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C290" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B291" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B292">
-        <v>1</v>
-      </c>
-      <c r="C292" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B293">
-        <v>2</v>
-      </c>
-      <c r="C293" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C294" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C295" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B300" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B301">
-        <v>1</v>
-      </c>
-      <c r="C301" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B302">
-        <v>2</v>
-      </c>
-      <c r="C302" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B303">
-        <v>3</v>
-      </c>
-      <c r="C303" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B304" t="s">
-        <v>53</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B305">
-        <v>1</v>
-      </c>
-      <c r="C305" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D306" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>152</v>
-      </c>
-      <c r="D307" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B308" t="s">
-        <v>76</v>
-      </c>
-      <c r="D308" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B309">
-        <v>1</v>
-      </c>
-      <c r="C309" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B310" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B311">
-        <v>1</v>
-      </c>
-      <c r="C311" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C312" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C313" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B315">
-        <v>2</v>
-      </c>
-      <c r="C315" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B319">
-        <v>3</v>
-      </c>
-      <c r="C319" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B320" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C322" t="s">
-        <v>165</v>
-      </c>
-      <c r="D322" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B323">
-        <v>2</v>
-      </c>
-      <c r="C323" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C324" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D325" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>137</v>
-      </c>
-      <c r="D326" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B327" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328" t="s">
-        <v>138</v>
-      </c>
-      <c r="D328" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B329" t="s">
-        <v>139</v>
-      </c>
-      <c r="D329" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B330">
-        <v>1</v>
-      </c>
-      <c r="C330" t="s">
-        <v>140</v>
-      </c>
-      <c r="D330" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C331" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C333" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C334" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C337" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C338" s="1"/>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C339" s="1"/>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C340" s="1"/>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C341" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B344" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B345">
-        <v>1</v>
-      </c>
-      <c r="C345" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B346">
-        <v>2</v>
-      </c>
-      <c r="C346" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B349" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B350">
-        <v>1</v>
-      </c>
-      <c r="C350" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B351">
-        <v>2</v>
-      </c>
-      <c r="C351" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B352" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B353">
-        <v>1</v>
-      </c>
-      <c r="C353" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B354" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B355">
-        <v>1</v>
-      </c>
-      <c r="C355" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B358" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B359">
-        <v>1</v>
-      </c>
-      <c r="C359" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B360">
-        <v>2</v>
-      </c>
-      <c r="C360" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B361">
-        <v>3</v>
-      </c>
-      <c r="C361" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B362" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B363">
-        <v>1</v>
-      </c>
-      <c r="C363" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B364">
-        <v>2</v>
-      </c>
-      <c r="C364" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C365" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B366">
-        <v>3</v>
-      </c>
-      <c r="C366" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B369" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B370">
-        <v>1</v>
-      </c>
-      <c r="C370" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B373" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B374">
-        <v>1</v>
-      </c>
-      <c r="C374" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B375">
-        <v>2</v>
-      </c>
-      <c r="C375" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B376" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B377">
-        <v>1</v>
-      </c>
-      <c r="C377" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B378">
-        <v>2</v>
-      </c>
-      <c r="C378" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B379">
-        <v>3</v>
-      </c>
-      <c r="C379" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B380">
-        <v>4</v>
-      </c>
-      <c r="C380" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B383" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B384">
-        <v>1</v>
-      </c>
-      <c r="C384" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B385" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B386">
-        <v>1</v>
-      </c>
-      <c r="C386" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B387">
-        <v>2</v>
-      </c>
-      <c r="C387" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B388">
-        <v>3</v>
-      </c>
-      <c r="C388" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>99</v>
-      </c>
-      <c r="D390" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B391" t="s">
-        <v>53</v>
-      </c>
-      <c r="D391" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B392">
-        <v>1</v>
-      </c>
-      <c r="C392" t="s">
-        <v>100</v>
-      </c>
-      <c r="D392" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>83</v>
-      </c>
-      <c r="D394" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B395" t="s">
-        <v>53</v>
-      </c>
-      <c r="D395" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B396">
-        <v>1</v>
-      </c>
-      <c r="C396" t="s">
-        <v>84</v>
-      </c>
-      <c r="D396" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B397">
-        <v>2</v>
-      </c>
-      <c r="C397" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B398">
-        <v>3</v>
-      </c>
-      <c r="C398" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B399">
-        <v>4</v>
-      </c>
-      <c r="C399" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C400" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C401" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C402" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B403">
-        <v>5</v>
-      </c>
-      <c r="C403" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B409" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B410">
-        <v>1</v>
-      </c>
-      <c r="C410" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B411">
-        <v>2</v>
-      </c>
-      <c r="C411" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B412" t="s">
-        <v>53</v>
-      </c>
-      <c r="D412" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B413">
-        <v>1</v>
-      </c>
-      <c r="C413" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B414">
-        <v>2</v>
-      </c>
-      <c r="C414" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B415">
-        <v>3</v>
-      </c>
-      <c r="C415" t="s">
-        <v>82</v>
-      </c>
-      <c r="D415" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B416">
-        <v>4</v>
-      </c>
-      <c r="C416" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>42</v>
-      </c>
-      <c r="D418" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B419" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B420">
-        <v>1</v>
-      </c>
-      <c r="C420" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B421">
-        <v>2</v>
-      </c>
-      <c r="C421" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D422" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B423">
-        <v>3</v>
-      </c>
-      <c r="C423" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B424">
-        <v>4</v>
-      </c>
-      <c r="C424" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D425" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B426">
-        <v>5</v>
-      </c>
-      <c r="C426" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B427">
-        <v>6</v>
-      </c>
-      <c r="C427" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B429">
-        <v>7</v>
-      </c>
-      <c r="C429" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B430">
-        <v>8</v>
-      </c>
-      <c r="C430" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B431">
-        <v>9</v>
-      </c>
-      <c r="C431" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B433">
-        <v>10</v>
-      </c>
-      <c r="C433" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B434">
-        <v>11</v>
-      </c>
-      <c r="C434" t="s">
-        <v>67</v>
-      </c>
-      <c r="D434" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B436" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B437">
-        <v>1</v>
-      </c>
-      <c r="C437" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B438">
-        <v>2</v>
-      </c>
-      <c r="C438" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B439">
-        <v>3</v>
-      </c>
-      <c r="C439" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B440">
-        <v>4</v>
-      </c>
-      <c r="C440" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B441">
-        <v>5</v>
-      </c>
-      <c r="C441" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B442">
-        <v>6</v>
-      </c>
-      <c r="C442" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B443">
-        <v>7</v>
-      </c>
-      <c r="C443" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B447" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AIWE Table Making Guideline v20171101.xlsx
+++ b/AIWE Table Making Guideline v20171101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common Tables" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="1071">
   <si>
     <t>No</t>
   </si>
@@ -648,68 +648,6 @@
   </si>
   <si>
     <t>supporting time shift value and fixed/non-fixed timestamp</t>
-  </si>
-  <si>
-    <t>ColumnName1=OrderDir1;ColumnName2=OrderDir2;ColumnName3;…;ColumnNameN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Specifying how the table display would be ordered
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OrderDir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is either </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DESC</t>
-    </r>
   </si>
   <si>
     <t>version 20170420:</t>
@@ -4744,6 +4682,109 @@
   </si>
   <si>
     <t>CustomDateTimeFormatColumns, EmailMakerTriggers, EmailMakers, NonPictureAttachmentColumns, DownloadColumns</t>
+  </si>
+  <si>
+    <t>ColumnName1=OrderDir1;ColumnName2=OrderDir2;ColumnName3;…;ColumnNameN
+Or
+SQL-SCRIPT:OrderByScript</t>
+  </si>
+  <si>
+    <t>Example 1:Quantity=ASC,Stock=DESC
+Means: the table shown will be ordered first by Quantity ascendingly, then by Stock descendingly
+Example 2: SQL-SCRIPT:(Quantity-Stock)*Price
+Means: the table shown will be ordered based on the result of the SQL script "(Quantity-Stock)*Price". Note that the OrderByScript is written as "(Quantity-Stock)*Price" instead of "((Quantity-Stock)*Price)" as auto-parentheses will already be added.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifying how the table display would be ordered. 
+There are two ways to specify the OrderBy column:
+- The first, and safer, way is by declaring the column name and the order direction one by one. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderDir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is either </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DESC. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If OrderDir is not specified, default direction of the SQL Server will be assumed</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The second way is by using SQL script. Using the second, unsafe, way, the value must be initialized with the prefix "SQL-SCRIPT:" then followed by the OrderByScript to be used. Unenclosed double dash (--) and semicolon (;) must not be present in the OrderByScript. When used, the OrderByScript will be enclosed by parentheses by the script generator: ORDER BY (OrderByScript).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5524,7 +5565,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B1" s="27"/>
     </row>
@@ -5541,13 +5582,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5560,37 +5601,37 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="57" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="57" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="57" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="57" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="57" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5598,7 +5639,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="58" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5607,247 +5648,247 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="59" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="60" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="60" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="60" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="60" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="60" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="60" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="60" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="60" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="60" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="60" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="60" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="60" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="60" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="60" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="60" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="60" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="60" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="60" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="60" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="60" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="60" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="60" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="60" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="60" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="76" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="60" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="60" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="60" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="60" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="60" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="60" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="60" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="60" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="60" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="60" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="60" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="60" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="76" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="76" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="76" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="76" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="61" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
@@ -5855,582 +5896,582 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="27" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B69" s="62" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="63" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="63" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="64" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="64" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="65" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="63" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="63" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="63" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="65" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="65" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="65" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="65" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="65" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="65" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="65" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="65" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="65" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="65" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="66" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="63" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="65" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="63" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="66" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="63" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="65" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="65" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="65" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="65" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="65" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="65" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="65" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="65" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="65" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="65" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="65" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="65" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="65" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="65" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="66" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="66" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="71" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="66" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="66" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="66" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="67" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="28" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="68" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="69" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="70" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="70" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="71" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="71" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="71" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="70" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="70" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="70" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="70" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="70" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="70" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="70" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="71" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="71" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="71" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="71" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="71" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="70" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="70" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="69" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="69" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="70" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="70" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B145" s="70" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="70" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="70" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="70" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B149" s="71" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="70" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="70" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="70" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="70" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="70" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="70" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="70" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="70" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="71" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B159" s="71" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="70" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="70" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="70" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="71" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="70" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="70" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="70" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="70" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="70" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="70" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="70" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="70" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="70" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="70" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="70" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="70" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="70" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="70" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="71" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="71" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="71" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="71" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="71" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="71" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="72" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -6456,23 +6497,23 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6480,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6494,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6502,18 +6543,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6521,18 +6562,18 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6548,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6556,13 +6597,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6570,18 +6611,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6589,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6597,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6605,7 +6646,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6613,7 +6654,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6621,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6629,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6637,18 +6678,18 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6656,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6664,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6672,13 +6713,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6691,12 +6732,12 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6704,12 +6745,12 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6717,12 +6758,12 @@
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6730,12 +6771,12 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6743,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6751,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6759,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6767,7 +6808,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6775,7 +6816,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6783,7 +6824,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6791,7 +6832,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6799,7 +6840,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6807,7 +6848,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6815,7 +6856,7 @@
         <v>10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6823,18 +6864,18 @@
         <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6842,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6850,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6858,27 +6899,27 @@
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6886,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6894,18 +6935,18 @@
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6913,12 +6954,12 @@
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6926,17 +6967,17 @@
         <v>2</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6944,22 +6985,22 @@
         <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6967,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6975,18 +7016,18 @@
         <v>2</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6994,12 +7035,12 @@
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7007,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7015,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7023,12 +7064,12 @@
         <v>3</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7036,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7044,7 +7085,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7052,28 +7093,28 @@
         <v>3</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C100" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C101" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7081,18 +7122,18 @@
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C106" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7105,12 +7146,12 @@
         <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7118,17 +7159,17 @@
         <v>1</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C113" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7136,23 +7177,23 @@
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C116" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C117" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7165,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7173,12 +7214,12 @@
         <v>2</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7186,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7194,7 +7235,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7202,13 +7243,13 @@
         <v>3</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7221,12 +7262,12 @@
         <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7234,12 +7275,12 @@
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7247,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7255,33 +7296,33 @@
         <v>2</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C136" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C137" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AD137" s="7"/>
     </row>
     <row r="138" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D138" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D139" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="140" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D140" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7289,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7297,7 +7338,7 @@
         <v>4</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7305,12 +7346,12 @@
         <v>5</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C144" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7318,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="147" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7337,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7345,18 +7386,18 @@
         <v>2</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="152" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7364,12 +7405,12 @@
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7377,23 +7418,23 @@
         <v>1</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C157" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="159" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7401,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7409,12 +7450,12 @@
         <v>2</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7422,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7430,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7438,37 +7479,37 @@
         <v>3</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C167" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C168" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D169" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D170" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D171" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C172" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7476,13 +7517,13 @@
         <v>4</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7495,12 +7536,12 @@
         <v>1</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7508,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7516,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7524,18 +7565,18 @@
         <v>3</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="183" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -7543,23 +7584,23 @@
         <v>1</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C186" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -7567,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -7580,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -7588,17 +7629,17 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -7606,12 +7647,12 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -7619,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -7627,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -7643,7 +7684,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -7651,22 +7692,22 @@
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -7674,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -7682,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="C208" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,7 +7731,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -7698,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -7706,7 +7747,7 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -7714,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -7722,7 +7763,7 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -7730,7 +7771,7 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -7738,12 +7779,12 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,12 +7797,12 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -7774,12 +7815,12 @@
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -7792,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,12 +7841,12 @@
         <v>2</v>
       </c>
       <c r="C228" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -7813,22 +7854,22 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -7841,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -7849,7 +7890,7 @@
         <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -7857,12 +7898,12 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7880,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -7889,7 +7930,7 @@
         <v>2</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -7905,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -7914,21 +7955,21 @@
         <v>2</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D248" s="3"/>
     </row>
@@ -7936,7 +7977,7 @@
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D249" s="3"/>
     </row>
@@ -7945,14 +7986,14 @@
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D251" s="3"/>
     </row>
@@ -7961,21 +8002,21 @@
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D253" s="3"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -7986,14 +8027,14 @@
         <v>1</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D255" s="3"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -8004,14 +8045,14 @@
         <v>1</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D257" s="3"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -8022,13 +8063,13 @@
         <v>1</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D259" s="3"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -8041,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -8049,7 +8090,7 @@
         <v>2</v>
       </c>
       <c r="C264" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -8057,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -8065,7 +8106,7 @@
         <v>4</v>
       </c>
       <c r="C266" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -8078,17 +8119,17 @@
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C269" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C270" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -8096,12 +8137,12 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -8109,22 +8150,22 @@
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C275" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -8132,12 +8173,12 @@
         <v>2</v>
       </c>
       <c r="C277" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -8145,12 +8186,12 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -8163,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -8171,7 +8212,7 @@
         <v>2</v>
       </c>
       <c r="C284" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -8179,7 +8220,7 @@
         <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -8187,7 +8228,7 @@
         <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -8200,22 +8241,22 @@
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C289" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C290" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -8223,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -8231,22 +8272,22 @@
         <v>2</v>
       </c>
       <c r="C293" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C294" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C295" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -8254,12 +8295,12 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -8272,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -8280,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="C302" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -8288,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="C303" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -8296,7 +8337,7 @@
         <v>53</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -8304,20 +8345,20 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D306" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D307" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -8325,7 +8366,7 @@
         <v>76</v>
       </c>
       <c r="D308" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -8333,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="C309" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -8346,17 +8387,17 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C312" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -8364,7 +8405,7 @@
         <v>2</v>
       </c>
       <c r="C315" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -8372,12 +8413,12 @@
         <v>3</v>
       </c>
       <c r="C319" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -8385,15 +8426,15 @@
         <v>1</v>
       </c>
       <c r="C321" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C322" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D322" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -8401,25 +8442,25 @@
         <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C324" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D325" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D326" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -8432,18 +8473,18 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D328" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D329" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -8451,30 +8492,30 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D330" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C331" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C333" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C334" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C337" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -8488,12 +8529,12 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C341" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -8506,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -8514,12 +8555,12 @@
         <v>2</v>
       </c>
       <c r="C346" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -8532,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -8540,7 +8581,7 @@
         <v>2</v>
       </c>
       <c r="C351" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -8553,12 +8594,12 @@
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -8566,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -9144,291 +9185,291 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C40" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -9440,8 +9481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9456,7 +9497,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9473,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -9487,7 +9528,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E3" s="40"/>
     </row>
@@ -9502,7 +9543,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E4" s="40"/>
     </row>
@@ -9511,13 +9552,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E5" s="46"/>
     </row>
@@ -9526,13 +9567,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>742</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>743</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>745</v>
       </c>
       <c r="E6" s="46"/>
     </row>
@@ -9551,20 +9592,22 @@
       </c>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>4</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="40"/>
+      <c r="C8" s="78" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
@@ -9574,10 +9617,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="40"/>
     </row>
@@ -9586,13 +9629,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E10" s="40"/>
     </row>
@@ -9604,10 +9647,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E11" s="40"/>
     </row>
@@ -9616,13 +9659,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E12" s="40"/>
     </row>
@@ -9646,16 +9689,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C14" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>689</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>690</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>691</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="31" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9669,7 +9712,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E15" s="40"/>
     </row>
@@ -9693,13 +9736,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E17" s="40"/>
     </row>
@@ -9714,7 +9757,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E18" s="40"/>
     </row>
@@ -9726,7 +9769,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D19" s="49" t="s">
         <v>35</v>
@@ -9744,10 +9787,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -9761,7 +9804,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E21" s="40"/>
     </row>
@@ -9770,13 +9813,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E22" s="46"/>
     </row>
@@ -9791,7 +9834,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E23" s="40"/>
     </row>
@@ -9806,7 +9849,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E24" s="40"/>
     </row>
@@ -9821,7 +9864,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E25" s="40"/>
     </row>
@@ -9836,7 +9879,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E26" s="40"/>
     </row>
@@ -9845,13 +9888,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C27" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="73" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E27" s="46"/>
     </row>
@@ -9866,7 +9909,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E28" s="40"/>
     </row>
@@ -9875,16 +9918,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -9898,10 +9941,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="144" x14ac:dyDescent="0.3">
@@ -9912,13 +9955,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -9932,7 +9975,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E32" s="40"/>
     </row>
@@ -9947,7 +9990,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E33" s="40"/>
     </row>
@@ -9959,13 +10002,13 @@
         <v>113</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
@@ -9973,16 +10016,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="31" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -9990,16 +10033,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D36" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>772</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="31" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -10007,16 +10050,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E37" s="79" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="31" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10024,16 +10067,16 @@
         <v>34</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="47" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10041,13 +10084,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E39" s="54"/>
     </row>
@@ -10056,13 +10099,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C40" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="D40" s="48" t="s">
         <v>494</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>496</v>
       </c>
       <c r="E40" s="54"/>
     </row>
@@ -10071,13 +10114,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E41" s="54"/>
     </row>
@@ -10086,16 +10129,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C42" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="D42" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="D42" s="48" t="s">
-        <v>513</v>
-      </c>
       <c r="E42" s="54" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="47" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
@@ -10103,16 +10146,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C43" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="D43" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="D43" s="48" t="s">
-        <v>512</v>
-      </c>
       <c r="E43" s="54" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="47" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -10120,16 +10163,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D44" s="73" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E44" s="74" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="47" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
@@ -10137,16 +10180,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C45" s="73" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D45" s="73" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E45" s="74" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="47" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -10154,16 +10197,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="77" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D46" s="73" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E46" s="74" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="47" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10171,16 +10214,16 @@
         <v>43</v>
       </c>
       <c r="B47" s="77" t="s">
+        <v>996</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>997</v>
+      </c>
+      <c r="D47" s="73" t="s">
         <v>998</v>
       </c>
-      <c r="C47" s="73" t="s">
-        <v>999</v>
-      </c>
-      <c r="D47" s="73" t="s">
-        <v>1000</v>
-      </c>
       <c r="E47" s="74" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -10188,13 +10231,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C48" s="73" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="73" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E48" s="74"/>
     </row>
@@ -10220,7 +10263,7 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -10245,1001 +10288,1001 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="29" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E34" s="15" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D35" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E36" s="15" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F37" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F38" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E39" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F40" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F41" s="10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F42" s="10" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G43" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F44" s="10" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D45" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E46" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E47" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F48" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F49" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D51" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D52" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D53" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E54" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F55" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E56" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E57" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F58" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F59" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>527</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F60" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F61" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E62" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="E63" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F64" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F65" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G66" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G67" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G68" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G69" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F70" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E71" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F72" s="14" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F73" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F74" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F75" s="14" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F76" s="14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D77" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E78" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E79" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F80" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F81" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F82" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F83" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E85" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E86" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F88" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F89" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E90" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E91" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="92" spans="5:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E92" s="16" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="93" spans="5:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F93" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="5:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G94" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="95" spans="5:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F95" s="16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="5:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G96" s="16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H97" s="16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G98" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H99" s="16" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G100" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="101" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F101" s="16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="102" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G102" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="103" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H103" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G104" s="16" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="105" spans="3:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H105" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C106" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D107" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D108" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="109" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D109" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="110" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E110" s="15" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="111" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D111" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="112" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E112" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D113" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E114" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F115" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F116" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E117" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F118" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F119" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E120" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F121" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F122" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F123" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F124" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F125" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G126" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H127" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H128" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="129" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G129" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="130" spans="7:12" x14ac:dyDescent="0.3">
       <c r="H130" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="131" spans="7:12" x14ac:dyDescent="0.3">
       <c r="H131" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="7:12" x14ac:dyDescent="0.3">
       <c r="H132" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="7:12" x14ac:dyDescent="0.3">
       <c r="I133" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J134" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J135" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="136" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J136" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J137" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" spans="7:12" x14ac:dyDescent="0.3">
       <c r="K138" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="139" spans="7:12" x14ac:dyDescent="0.3">
       <c r="K139" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="140" spans="7:12" x14ac:dyDescent="0.3">
       <c r="L140" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="141" spans="7:12" x14ac:dyDescent="0.3">
       <c r="I141" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="142" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J142" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J143" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="7:12" x14ac:dyDescent="0.3">
       <c r="J144" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J145" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J146" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J147" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K148" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K149" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L150" s="10" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L151" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L152" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E153" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F154" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F155" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F156" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G157" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F158" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F168" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F169" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F170" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="10" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="10" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E173" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E174" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F176" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G177" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="179" spans="1:7" s="17" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B183" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B185" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B187" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -11274,17 +11317,17 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -11292,32 +11335,32 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -11326,107 +11369,107 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -11434,18 +11477,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -11453,18 +11496,18 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -11472,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -11480,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -11488,90 +11531,90 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="H32" t="s">
         <v>888</v>
-      </c>
-      <c r="H32" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="83" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C33" s="83"/>
       <c r="D33" s="83"/>
       <c r="E33" s="83"/>
       <c r="F33" s="83" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="82" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C34" s="82"/>
       <c r="D34" s="82"/>
       <c r="E34" s="82"/>
       <c r="F34" s="82" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I34" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J34" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="82" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C35" s="82"/>
       <c r="D35" s="82"/>
       <c r="E35" s="82"/>
       <c r="F35" s="82" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -11579,146 +11622,146 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="81" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="81"/>
       <c r="E36" s="81"/>
       <c r="F36" s="82" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J36" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="81" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="81"/>
       <c r="E37" s="81"/>
       <c r="F37" s="82" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J37" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="81" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
       <c r="F38" s="82" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J38" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="82" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C39" s="82"/>
       <c r="D39" s="82"/>
       <c r="E39" s="82"/>
       <c r="F39" s="82" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J39" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="82" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C40" s="82"/>
       <c r="D40" s="82"/>
       <c r="E40" s="82"/>
       <c r="F40" s="82" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I40" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J40" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="82" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C41" s="82"/>
       <c r="D41" s="82"/>
       <c r="E41" s="82"/>
       <c r="F41" s="80" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="81" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C42" s="81"/>
       <c r="D42" s="81"/>
       <c r="E42" s="81"/>
       <c r="F42" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I42" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J42" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K42" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="82" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C43" s="82"/>
       <c r="D43" s="82"/>
       <c r="E43" s="82"/>
       <c r="I43" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J43" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K43" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="82" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C44" s="82"/>
       <c r="D44" s="82"/>
@@ -11727,12 +11770,12 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="81" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C45" s="81"/>
       <c r="D45" s="81"/>
@@ -11740,15 +11783,15 @@
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="81" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
@@ -11756,31 +11799,31 @@
       <c r="F46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="H48" s="3"/>
       <c r="I48" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -11788,60 +11831,60 @@
         <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" s="83"/>
       <c r="C50" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I50" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" s="82"/>
       <c r="C51" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B52" s="80"/>
       <c r="C52" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" s="81"/>
       <c r="C53" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -11849,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -11857,12 +11900,12 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -11870,10 +11913,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="86" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -11881,10 +11924,10 @@
         <v>2</v>
       </c>
       <c r="B63" s="86" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -11892,10 +11935,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -11903,30 +11946,30 @@
         <v>4</v>
       </c>
       <c r="B65" s="86" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -11934,10 +11977,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="86" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E71" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -11945,10 +11988,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="86" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -11956,10 +11999,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="86" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -11967,10 +12010,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="86" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -11978,10 +12021,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="86" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E75" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -11989,10 +12032,10 @@
         <v>6</v>
       </c>
       <c r="B76" s="86" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -12000,10 +12043,10 @@
         <v>7</v>
       </c>
       <c r="B77" s="86" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -12011,10 +12054,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="86" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -12022,10 +12065,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="86" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -12033,10 +12076,10 @@
         <v>10</v>
       </c>
       <c r="B80" s="86" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -12044,10 +12087,10 @@
         <v>11</v>
       </c>
       <c r="B81" s="86" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -12055,10 +12098,10 @@
         <v>12</v>
       </c>
       <c r="B82" s="86" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -12066,40 +12109,40 @@
         <v>13</v>
       </c>
       <c r="B83" s="86" t="s">
+        <v>964</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" s="86" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -12109,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -12117,12 +12160,12 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -12132,196 +12175,196 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B117" s="84" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F117" s="84" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B118" s="84" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F118" s="84" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B119" s="84" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F119" s="84" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B120" s="84" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F120" s="84" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B121" s="84" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F121" s="84" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B122" s="84" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F122" s="84" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B123" s="84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F123" s="84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B124" s="84" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B125" s="84" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F125" s="84" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="84" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F126" s="84" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="84" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -12343,261 +12386,261 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="J3" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F6" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J6" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F8" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J9" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J10" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="84" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J12" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="84" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="J13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="84" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="84" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="84" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="84" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J15" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="84" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="84" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="84" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="84" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J17" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="84" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J18" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B19" s="84" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="84" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J19" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="84" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B21" s="84" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="84" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="84" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="84" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="84" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -12605,7 +12648,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -12616,1777 +12659,1777 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -14410,38 +14453,38 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -14454,7 +14497,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14464,22 +14507,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -14504,7 +14547,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -14512,13 +14555,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -14526,13 +14569,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14540,18 +14583,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -14572,22 +14615,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
